--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/correct_predictions_42.xlsx
@@ -881,7 +881,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1037,31 +1037,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,42 +1316,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,37 +1436,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1496,112 +1496,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,52 +1676,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1736,37 +1736,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1856,42 +1856,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1916,52 +1916,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1976,47 +1976,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori2/42/correct_predictions_42.xlsx
@@ -881,7 +881,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1037,31 +1037,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,42 +1316,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,37 +1436,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1496,112 +1496,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,52 +1676,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1736,37 +1736,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1796,52 +1796,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1856,42 +1856,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1916,52 +1916,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1976,47 +1976,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
